--- a/curation/draft/package13/R13_BC_SDTM_QRS_BPRS-A.xlsx
+++ b/curation/draft/package13/R13_BC_SDTM_QRS_BPRS-A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C545FF5-C7DA-4E2A-8A5D-21FC1EC27FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A60BB9-3721-4DEB-995C-07B0157FD4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_BPRS-A" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'BC_BPRS-A'!$A$1:$S$92</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SDTM_BPRS-A'!$A$1:$AG$143</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4244" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4244" uniqueCount="242">
   <si>
     <t>package_date</t>
   </si>
@@ -764,6 +764,9 @@
   </si>
   <si>
     <t>Brief Psychiatric Rating Scale A Clinical Classification</t>
+  </si>
+  <si>
+    <t>CCCAT</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5093,7 +5096,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9496C4D5-5947-423F-AB5C-A7EF43995234}">
   <dimension ref="A1:AG143"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5423,7 +5428,7 @@
         <v>171</v>
       </c>
       <c r="M4" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="N4"/>
       <c r="O4"/>
@@ -6035,7 +6040,7 @@
         <v>171</v>
       </c>
       <c r="M12" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="N12"/>
       <c r="O12"/>
@@ -6647,7 +6652,7 @@
         <v>171</v>
       </c>
       <c r="M20" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="N20"/>
       <c r="O20"/>
@@ -7257,7 +7262,7 @@
         <v>171</v>
       </c>
       <c r="M28" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="N28"/>
       <c r="O28"/>
@@ -7867,7 +7872,7 @@
         <v>171</v>
       </c>
       <c r="M36" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="N36"/>
       <c r="O36"/>
@@ -8479,7 +8484,7 @@
         <v>171</v>
       </c>
       <c r="M44" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="N44"/>
       <c r="O44"/>
@@ -9089,7 +9094,7 @@
         <v>171</v>
       </c>
       <c r="M52" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="N52"/>
       <c r="O52"/>
@@ -9631,7 +9636,7 @@
         <v>171</v>
       </c>
       <c r="M59" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="N59"/>
       <c r="O59"/>
@@ -10243,7 +10248,7 @@
         <v>171</v>
       </c>
       <c r="M67" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="N67"/>
       <c r="O67"/>
@@ -10855,7 +10860,7 @@
         <v>171</v>
       </c>
       <c r="M75" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="N75"/>
       <c r="O75"/>
@@ -11467,7 +11472,7 @@
         <v>171</v>
       </c>
       <c r="M83" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="N83"/>
       <c r="O83"/>
@@ -12079,7 +12084,7 @@
         <v>171</v>
       </c>
       <c r="M91" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="N91"/>
       <c r="O91"/>
@@ -12691,7 +12696,7 @@
         <v>171</v>
       </c>
       <c r="M99" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="N99"/>
       <c r="O99"/>
@@ -13233,7 +13238,7 @@
         <v>171</v>
       </c>
       <c r="M106" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="N106"/>
       <c r="O106"/>
@@ -13843,7 +13848,7 @@
         <v>171</v>
       </c>
       <c r="M114" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="N114"/>
       <c r="O114"/>
@@ -14455,7 +14460,7 @@
         <v>171</v>
       </c>
       <c r="M122" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="N122"/>
       <c r="O122"/>
@@ -15065,7 +15070,7 @@
         <v>171</v>
       </c>
       <c r="M130" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="N130"/>
       <c r="O130"/>
@@ -15675,7 +15680,7 @@
         <v>171</v>
       </c>
       <c r="M138" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="N138"/>
       <c r="O138"/>

--- a/curation/draft/package13/R13_BC_SDTM_QRS_BPRS-A.xlsx
+++ b/curation/draft/package13/R13_BC_SDTM_QRS_BPRS-A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A60BB9-3721-4DEB-995C-07B0157FD4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAC716E-85D6-41BA-A2CF-9B46572EB94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_BPRS-A" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4244" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4251" uniqueCount="243">
   <si>
     <t>package_date</t>
   </si>
@@ -767,6 +767,9 @@
   </si>
   <si>
     <t>CCCAT</t>
+  </si>
+  <si>
+    <t>Not reported; Very Mild; Mild; Moderate; Moderately Severe; Severe; Very Severe; Cannot be assessed adequately because of severe formal thought disorder, uncooperativeness, or marked evasiveness/guardedness, or Not assessed</t>
   </si>
 </sst>
 </file>
@@ -1131,8 +1134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q74" sqref="Q74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,7 +1355,7 @@
         <v>66</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="105" x14ac:dyDescent="0.25">
@@ -1569,7 +1572,7 @@
         <v>66</v>
       </c>
       <c r="Q11" s="4" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="105" x14ac:dyDescent="0.25">
@@ -2220,7 +2223,7 @@
         <v>66</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="105" x14ac:dyDescent="0.25">
@@ -2827,7 +2830,7 @@
         <v>66</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="105" x14ac:dyDescent="0.25">
@@ -3261,7 +3264,7 @@
         <v>66</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="105" x14ac:dyDescent="0.25">
@@ -3478,7 +3481,7 @@
         <v>66</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="105" x14ac:dyDescent="0.25">
@@ -3695,7 +3698,7 @@
         <v>66</v>
       </c>
       <c r="Q60" s="4" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="105" x14ac:dyDescent="0.25">
@@ -4302,7 +4305,7 @@
         <v>66</v>
       </c>
       <c r="Q74" s="4" t="s">
-        <v>67</v>
+        <v>242</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="105" x14ac:dyDescent="0.25">
@@ -5096,8 +5099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9496C4D5-5947-423F-AB5C-A7EF43995234}">
   <dimension ref="A1:AG143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7046,7 +7049,9 @@
       <c r="S25" t="s">
         <v>195</v>
       </c>
-      <c r="T25"/>
+      <c r="T25" t="s">
+        <v>194</v>
+      </c>
       <c r="U25" t="s">
         <v>192</v>
       </c>
@@ -7656,7 +7661,9 @@
       <c r="S33" t="s">
         <v>195</v>
       </c>
-      <c r="T33"/>
+      <c r="T33" t="s">
+        <v>194</v>
+      </c>
       <c r="U33" t="s">
         <v>192</v>
       </c>
@@ -8878,7 +8885,9 @@
       <c r="S49" t="s">
         <v>195</v>
       </c>
-      <c r="T49"/>
+      <c r="T49" t="s">
+        <v>194</v>
+      </c>
       <c r="U49" t="s">
         <v>192</v>
       </c>
@@ -13632,7 +13641,9 @@
       <c r="S111" t="s">
         <v>195</v>
       </c>
-      <c r="T111"/>
+      <c r="T111" t="s">
+        <v>194</v>
+      </c>
       <c r="U111" t="s">
         <v>192</v>
       </c>
@@ -14854,7 +14865,9 @@
       <c r="S127" t="s">
         <v>195</v>
       </c>
-      <c r="T127"/>
+      <c r="T127" t="s">
+        <v>194</v>
+      </c>
       <c r="U127" t="s">
         <v>192</v>
       </c>
@@ -15464,7 +15477,9 @@
       <c r="S135" t="s">
         <v>195</v>
       </c>
-      <c r="T135"/>
+      <c r="T135" t="s">
+        <v>194</v>
+      </c>
       <c r="U135" t="s">
         <v>192</v>
       </c>
@@ -16074,7 +16089,9 @@
       <c r="S143" t="s">
         <v>195</v>
       </c>
-      <c r="T143"/>
+      <c r="T143" t="s">
+        <v>194</v>
+      </c>
       <c r="U143" t="s">
         <v>192</v>
       </c>
